--- a/wwwroot/data/cong.xlsx
+++ b/wwwroot/data/cong.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>Mã Nhân Viên</t>
   </si>
@@ -193,14 +193,22 @@
   </si>
   <si>
     <t>Hải Dương</t>
+  </si>
+  <si>
+    <t>NV-0018</t>
+  </si>
+  <si>
+    <t>0912312312</t>
+  </si>
+  <si>
+    <t>Hà Tây</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,13 +243,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -523,11 +531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +550,7 @@
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,23 +576,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>36791</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="3">
@@ -594,23 +602,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>36772</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="3">
@@ -620,23 +628,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2">
         <v>36619</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="3">
@@ -646,23 +654,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>36881</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="3">
@@ -672,23 +680,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>36777</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="3">
@@ -698,23 +706,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="2">
         <v>28647</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="3">
@@ -724,23 +732,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="2">
         <v>29375</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="3">
@@ -750,23 +758,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="2">
         <v>36259</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="3">
@@ -776,23 +784,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="2">
         <v>36259</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="3">
@@ -802,23 +810,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="2">
         <v>36259</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="3">
@@ -828,23 +836,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="2">
         <v>36259</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="3">
@@ -854,23 +862,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>36259</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="3">
@@ -880,23 +888,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="2">
         <v>36259</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="3">
@@ -906,23 +914,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="2">
         <v>36265</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>39</v>
       </c>
       <c r="G15" s="3">
@@ -932,23 +940,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="2">
         <v>36320</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>39</v>
       </c>
       <c r="G16" s="3">
@@ -958,9 +966,58 @@
         <v>18</v>
       </c>
     </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2">
+        <v>36556</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>